--- a/biology/Botanique/Valsusa_rosso/Valsusa_rosso.xlsx
+++ b/biology/Botanique/Valsusa_rosso/Valsusa_rosso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Valsusa rosso est un vin rouge italien de la région Piémont doté d'une appellation DOC depuis le 31 octobre 1997. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent dans les communes de Almese, Borgone Susa, Bruzolo, Bussoleno, Caprie, Chianocco, Chiomonte, Condove, Exilles, Giaglione, Gravere, Mattie, Meana di Susa, Mompantero, Rubiana, San Didero, San Giorio di Susa, Susa et Villar Focchiardo en province de Turin. Les communes font partie de la Val de Suse.
 Voir aussi l’article Valsusa novello.
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : de rouge rubis plus ou moins intense avec des reflets orange
 odeur : intense, caractéristique, vineux et fruité
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponible 
